--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>AboutForm</t>
+  </si>
+  <si>
+    <t>组装玩法UI</t>
+  </si>
+  <si>
+    <t>CombineForm</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1255,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="11.4545454545455" style="1" customWidth="1"/>
@@ -1417,6 +1423,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>CombineForm</t>
+  </si>
+  <si>
+    <t>Mask对话UI</t>
+  </si>
+  <si>
+    <t>MaskDialogForm</t>
+  </si>
+  <si>
+    <t>Bottom对话UI</t>
+  </si>
+  <si>
+    <t>BottomDialogForm</t>
+  </si>
+  <si>
+    <t>Bubble对话UI</t>
+  </si>
+  <si>
+    <t>BubbleDialogForm</t>
   </si>
 </sst>
 </file>
@@ -1255,18 +1273,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="11.4545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4545454545455" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5454545454545" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.1818181818182" style="1" customWidth="1"/>
@@ -1443,6 +1461,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -119,7 +119,7 @@
     <t>Bottom对话UI</t>
   </si>
   <si>
-    <t>BottomDialogForm</t>
+    <t>BottomBoxDialogForm</t>
   </si>
   <si>
     <t>Bubble对话UI</t>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1284,7 +1284,7 @@
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="11.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.9090909090909" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5454545454545" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.1818181818182" style="1" customWidth="1"/>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -83,13 +83,16 @@
     <t>DialogForm</t>
   </si>
   <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>MenuForm</t>
+  </si>
+  <si>
     <t>Default</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>MenuForm</t>
   </si>
   <si>
     <t>设置</t>
@@ -1276,7 +1279,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1392,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -1406,13 +1409,13 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -1426,13 +1429,13 @@
         <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -1446,13 +1449,13 @@
         <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -1466,13 +1469,13 @@
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -1486,13 +1489,13 @@
         <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -1506,13 +1509,13 @@
         <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>BubbleDialogForm</t>
+  </si>
+  <si>
+    <t>游戏场景覆盖UI</t>
+  </si>
+  <si>
+    <t>MainOverlayForm</t>
+  </si>
+  <si>
+    <t>Overlay</t>
   </si>
 </sst>
 </file>
@@ -1276,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1475,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -1495,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -1515,12 +1524,32 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Overlay</t>
+  </si>
+  <si>
+    <t>AI对话UI</t>
+  </si>
+  <si>
+    <t>AIChatForm</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1553,6 +1559,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据表/UIForm.xlsx
+++ b/数据表/UIForm.xlsx
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
